--- a/full-national-tracking-code.xlsx
+++ b/full-national-tracking-code.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7C0DFF-57FC-47DB-AB85-9EDD73824BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A533CD3C-FA91-47B7-B619-3B615BF17B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12" yWindow="732" windowWidth="23028" windowHeight="13668" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="136">
   <si>
     <t>Full – National Tracking Code</t>
   </si>
@@ -663,6 +663,12 @@
   </si>
   <si>
     <t>DISPONIBILE PER RITIRO A PARCEL SHOP</t>
+  </si>
+  <si>
+    <t>Parcel not anymore available for pickup at GLS Shop because terms for pickup expired. Waiting for instruction of delivery from sender.</t>
+  </si>
+  <si>
+    <t>Spedizione non più disponibile per ritiro al GLS Shop per scadenza dei termini. Attesa istruzioni dal mittente</t>
   </si>
 </sst>
 </file>
@@ -823,106 +829,109 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="15"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="15"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1306,677 +1315,688 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35:D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.46875" defaultRowHeight="12.6" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="1" max="1" width="3.3515625" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" customWidth="1"/>
-    <col min="4" max="5" width="35.83203125" customWidth="1"/>
-    <col min="6" max="6" width="33.33203125" customWidth="1"/>
+    <col min="3" max="3" width="26.64453125" customWidth="1"/>
+    <col min="4" max="5" width="35.8203125" customWidth="1"/>
+    <col min="6" max="6" width="33.3515625" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-    </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+    </row>
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="62.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:7" ht="62.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="9">
+    <row r="4" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="29"/>
+      <c r="B4" s="3">
         <v>5</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="15">
+    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="29"/>
+      <c r="B5" s="9">
         <v>8</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="15">
+    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="29"/>
+      <c r="B6" s="9">
         <v>12</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="18"/>
-    </row>
-    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="15">
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="29"/>
+      <c r="B7" s="9">
         <v>13</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="18"/>
-    </row>
-    <row r="8" spans="1:7" ht="27" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="15">
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" spans="1:7" ht="27" x14ac:dyDescent="0.45">
+      <c r="A8" s="29"/>
+      <c r="B8" s="9">
         <v>14</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="9">
+    <row r="9" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="29"/>
+      <c r="B9" s="3">
         <v>15</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="18"/>
-    </row>
-    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="15">
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="29"/>
+      <c r="B10" s="9">
         <v>16</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="9">
+    <row r="11" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="29"/>
+      <c r="B11" s="3">
         <v>17</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="9">
+    <row r="12" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="29"/>
+      <c r="B12" s="3">
         <v>19</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="35.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="15">
+    <row r="13" spans="1:7" ht="35.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="29"/>
+      <c r="B13" s="9">
         <v>22</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="35.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="15">
+    <row r="14" spans="1:7" ht="35.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="29"/>
+      <c r="B14" s="9">
         <v>23</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="15">
+    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="29"/>
+      <c r="B15" s="9">
         <v>25</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="18"/>
-    </row>
-    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="15">
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="29"/>
+      <c r="B16" s="9">
         <v>26</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="18"/>
-    </row>
-    <row r="17" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="9">
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="29"/>
+      <c r="B17" s="3">
         <v>27</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G17" s="18"/>
-    </row>
-    <row r="18" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="9">
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="29"/>
+      <c r="B18" s="3">
         <v>28</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="15">
+    <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="29"/>
+      <c r="B19" s="9">
         <v>32</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="18"/>
-    </row>
-    <row r="20" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="21">
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="29"/>
+      <c r="B20" s="15">
         <v>34</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="G20" s="24"/>
-    </row>
-    <row r="21" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="G20" s="18"/>
+    </row>
+    <row r="21" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="25">
+      <c r="B21" s="19">
         <v>35</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="E21" s="27" t="s">
+      <c r="E21" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="G21" s="28" t="s">
+      <c r="G21" s="22" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="15">
+    <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="30"/>
+      <c r="B22" s="9">
         <v>67</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="F22" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G22" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="15">
+    <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="30"/>
+      <c r="B23" s="9">
         <v>70</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F23" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="G23" s="18"/>
-    </row>
-    <row r="24" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="9">
+      <c r="G23" s="12"/>
+    </row>
+    <row r="24" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="30"/>
+      <c r="B24" s="3">
         <v>71</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="F24" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="G24" s="18"/>
-    </row>
-    <row r="25" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
-      <c r="B25" s="3">
+      <c r="G24" s="12"/>
+    </row>
+    <row r="25" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="30"/>
+      <c r="B25" s="31">
         <v>72</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="D25" s="29" t="s">
+      <c r="D25" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="F25" s="30" t="s">
+      <c r="F25" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="G25" s="14" t="s">
+      <c r="G25" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="14" t="s">
+    <row r="26" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="30"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
-      <c r="B27" s="9">
+    <row r="27" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="30"/>
+      <c r="B27" s="3">
         <v>73</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="F27" s="19" t="s">
+      <c r="F27" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="G27" s="31" t="s">
+      <c r="G27" s="25" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
-      <c r="B28" s="15">
+    <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="30"/>
+      <c r="B28" s="9">
         <v>74</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="F28" s="16" t="s">
+      <c r="F28" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="G28" s="11" t="s">
+      <c r="G28" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="44.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="4"/>
-      <c r="B29" s="9">
+    <row r="29" spans="1:7" ht="44.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="30"/>
+      <c r="B29" s="3">
         <v>75</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="F29" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="G29" s="32" t="s">
+      <c r="G29" s="26" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="4"/>
-      <c r="B30" s="9">
+    <row r="30" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="30"/>
+      <c r="B30" s="3">
         <v>76</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E30" s="19" t="s">
+      <c r="E30" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="F30" s="33" t="s">
+      <c r="F30" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="G30" s="31" t="s">
+      <c r="G30" s="25" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="4"/>
-      <c r="B31" s="15">
+    <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="30"/>
+      <c r="B31" s="9">
         <v>77</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="F31" s="16" t="s">
+      <c r="F31" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="G31" s="18"/>
-    </row>
-    <row r="32" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="4"/>
-      <c r="B32" s="15">
+      <c r="G31" s="12"/>
+    </row>
+    <row r="32" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="30"/>
+      <c r="B32" s="9">
         <v>78</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="D32" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F32" s="16" t="s">
+      <c r="F32" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="G32" s="18"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B33" s="15">
+      <c r="G32" s="12"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B33" s="9">
         <v>81</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-    </row>
-    <row r="34" spans="2:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="B34" s="15">
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B34" s="9">
         <v>80</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="10" t="s">
         <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="9">
+        <v>82</v>
+      </c>
+      <c r="C35" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/full-national-tracking-code.xlsx
+++ b/full-national-tracking-code.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A533CD3C-FA91-47B7-B619-3B615BF17B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39B7095-B1B4-4976-A723-E85424C449B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12" yWindow="732" windowWidth="23028" windowHeight="13668" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="137">
   <si>
     <t>Full – National Tracking Code</t>
   </si>
@@ -665,10 +665,13 @@
     <t>DISPONIBILE PER RITIRO A PARCEL SHOP</t>
   </si>
   <si>
-    <t>Parcel not anymore available for pickup at GLS Shop because terms for pickup expired. Waiting for instruction of delivery from sender.</t>
-  </si>
-  <si>
-    <t>Spedizione non più disponibile per ritiro al GLS Shop per scadenza dei termini. Attesa istruzioni dal mittente</t>
+    <t>MISSING CUSTOM DOCUMENTS</t>
+  </si>
+  <si>
+    <t>Mancano documenti doganali per inoltro spedizione a destino. In attesa di istruzioni dal mittente per eventuale riconsegna.</t>
+  </si>
+  <si>
+    <t>Missing Customs documents to forward it to the destination warehouse. Waiting for instruction from sender.</t>
   </si>
 </sst>
 </file>
@@ -829,7 +832,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -929,9 +932,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1317,8 +1317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35:D35"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.46875" defaultRowHeight="12.6" x14ac:dyDescent="0.45"/>
@@ -1750,263 +1750,269 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="30"/>
-      <c r="B22" s="9">
-        <v>67</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="B22" s="19">
+        <v>49</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="F22" s="11"/>
+      <c r="G22" s="22"/>
     </row>
     <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="30"/>
       <c r="B23" s="9">
+        <v>67</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="30"/>
+      <c r="B24" s="9">
         <v>70</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C24" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D24" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E24" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F24" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="G23" s="12"/>
-    </row>
-    <row r="24" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="30"/>
-      <c r="B24" s="3">
+      <c r="G24" s="12"/>
+    </row>
+    <row r="25" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="30"/>
+      <c r="B25" s="3">
         <v>71</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C25" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D25" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E25" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F25" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="G24" s="12"/>
-    </row>
-    <row r="25" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="30"/>
-      <c r="B25" s="31">
-        <v>72</v>
-      </c>
-      <c r="C25" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="E25" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="F25" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>102</v>
-      </c>
+      <c r="G25" s="12"/>
     </row>
     <row r="26" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="30"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="24"/>
+      <c r="B26" s="31">
+        <v>72</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>101</v>
+      </c>
       <c r="G26" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="30"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="30"/>
-      <c r="B27" s="3">
+    <row r="28" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="30"/>
+      <c r="B28" s="3">
         <v>73</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C28" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D28" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E28" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="F28" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="G27" s="25" t="s">
+      <c r="G28" s="25" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="30"/>
-      <c r="B28" s="9">
+    <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="30"/>
+      <c r="B29" s="9">
         <v>74</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C29" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D29" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E29" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F29" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G29" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="44.85" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="30"/>
-      <c r="B29" s="3">
-        <v>75</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="G29" s="26" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" ht="44.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="30"/>
       <c r="B30" s="3">
+        <v>75</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G30" s="26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="30"/>
+      <c r="B31" s="3">
         <v>76</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C31" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D31" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E31" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="F30" s="27" t="s">
+      <c r="F31" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="G30" s="25" t="s">
+      <c r="G31" s="25" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="30"/>
-      <c r="B31" s="9">
-        <v>77</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="G31" s="12"/>
-    </row>
-    <row r="32" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="30"/>
       <c r="B32" s="9">
+        <v>77</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="G32" s="12"/>
+    </row>
+    <row r="33" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="30"/>
+      <c r="B33" s="9">
         <v>78</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C33" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D33" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E33" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="F33" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="G32" s="12"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B33" s="9">
+      <c r="G33" s="12"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B34" s="9">
         <v>81</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C34" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D34" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B34" s="9">
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B35" s="9">
         <v>80</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C35" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D35" s="10" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="9">
-        <v>82</v>
-      </c>
-      <c r="C35" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>134</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:A20"/>
-    <mergeCell ref="A21:A32"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A21:A33"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="E26:E27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
